--- a/data/input/employee_absence_data_7.xlsx
+++ b/data/input/employee_absence_data_7.xlsx
@@ -464,45 +464,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5498</v>
+        <v>66897</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Matteo da Rocha</t>
+          <t>Emanuel Pacheco</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45104</v>
+        <v>45084</v>
       </c>
       <c r="G2" t="n">
-        <v>6129.3</v>
+        <v>4356.48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>31375</v>
+        <v>5562</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dr. Ian Vargas</t>
+          <t>Lorenzo Novais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -511,245 +511,245 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45086</v>
+        <v>45091</v>
       </c>
       <c r="G3" t="n">
-        <v>10807.75</v>
+        <v>5476.47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>40775</v>
+        <v>3951</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Srta. Kamilly Pires</t>
+          <t>Diego Sousa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45105</v>
+        <v>45081</v>
       </c>
       <c r="G4" t="n">
-        <v>3714.34</v>
+        <v>7135.03</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>75874</v>
+        <v>18271</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sr. Vitor Gomes</t>
+          <t>Danilo Ferreira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45104</v>
+        <v>45080</v>
       </c>
       <c r="G5" t="n">
-        <v>4190.71</v>
+        <v>2414.01</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>36473</v>
+        <v>84840</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sr. Pedro Henrique Moreira</t>
+          <t>Luiza Pires</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45078</v>
+        <v>45090</v>
       </c>
       <c r="G6" t="n">
-        <v>9989.629999999999</v>
+        <v>6854.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>24344</v>
+        <v>44822</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Otto Farias</t>
+          <t>Valentim Rocha</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>4</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45101</v>
+        <v>45089</v>
       </c>
       <c r="G7" t="n">
-        <v>8155.55</v>
+        <v>3455.34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>35292</v>
+        <v>939</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lara Nunes</t>
+          <t>Srta. Maria Vitória Vieira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45106</v>
+        <v>45100</v>
       </c>
       <c r="G8" t="n">
-        <v>6881.39</v>
+        <v>7535.22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>68771</v>
+        <v>77228</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Theo Azevedo</t>
+          <t>Luísa Rocha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45085</v>
+        <v>45089</v>
       </c>
       <c r="G9" t="n">
-        <v>11154.77</v>
+        <v>3974.81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>68218</v>
+        <v>26892</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Heloísa Nogueira</t>
+          <t>Agatha Camargo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45088</v>
+        <v>45103</v>
       </c>
       <c r="G10" t="n">
-        <v>7701.35</v>
+        <v>4727.89</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>95717</v>
+        <v>50511</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Rhavi Pereira</t>
+          <t>Marcos Vinicius da Costa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45079</v>
+        <v>45090</v>
       </c>
       <c r="G11" t="n">
-        <v>3392.3</v>
+        <v>8614.83</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_7.xlsx
+++ b/data/input/employee_absence_data_7.xlsx
@@ -464,127 +464,127 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>66897</v>
+        <v>58247</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Emanuel Pacheco</t>
+          <t>Alícia Almeida</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="G2" t="n">
-        <v>4356.48</v>
+        <v>2654.08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5562</v>
+        <v>62492</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lorenzo Novais</t>
+          <t>João Guilherme Ramos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45091</v>
+        <v>45086</v>
       </c>
       <c r="G3" t="n">
-        <v>5476.47</v>
+        <v>5288.07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3951</v>
+        <v>94840</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diego Sousa</t>
+          <t>Pietra Moraes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45081</v>
+        <v>45102</v>
       </c>
       <c r="G4" t="n">
-        <v>7135.03</v>
+        <v>7883.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>18271</v>
+        <v>29978</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Danilo Ferreira</t>
+          <t>Dr. Anthony Marques</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45080</v>
+        <v>45083</v>
       </c>
       <c r="G5" t="n">
-        <v>2414.01</v>
+        <v>5849.76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>84840</v>
+        <v>11165</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Luiza Pires</t>
+          <t>Helena Aparecida</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -594,26 +594,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45090</v>
+        <v>45087</v>
       </c>
       <c r="G6" t="n">
-        <v>6854.8</v>
+        <v>2441.78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>44822</v>
+        <v>36234</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Valentim Rocha</t>
+          <t>Davi Luiz Sousa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -623,31 +623,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45089</v>
+        <v>45086</v>
       </c>
       <c r="G7" t="n">
-        <v>3455.34</v>
+        <v>4565.23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>939</v>
+        <v>89671</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Srta. Maria Vitória Vieira</t>
+          <t>Sophie Aragão</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -656,100 +656,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45100</v>
+        <v>45086</v>
       </c>
       <c r="G8" t="n">
-        <v>7535.22</v>
+        <v>9249.32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>77228</v>
+        <v>78341</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Luísa Rocha</t>
+          <t>Ana Cecília Martins</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45089</v>
+        <v>45098</v>
       </c>
       <c r="G9" t="n">
-        <v>3974.81</v>
+        <v>3355.31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>26892</v>
+        <v>17758</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Agatha Camargo</t>
+          <t>Pedro Souza</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>8</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45103</v>
+        <v>45100</v>
       </c>
       <c r="G10" t="n">
-        <v>4727.89</v>
+        <v>2139.19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>50511</v>
+        <v>68785</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Marcos Vinicius da Costa</t>
+          <t>Vinícius Mendonça</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45090</v>
+        <v>45104</v>
       </c>
       <c r="G11" t="n">
-        <v>8614.83</v>
+        <v>9841.82</v>
       </c>
     </row>
   </sheetData>
